--- a/medicine/Enfance/Georges_Ripart/Georges_Ripart.xlsx
+++ b/medicine/Enfance/Georges_Ripart/Georges_Ripart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moïse Georges Alfred Ripart, né le 3 février 1871 à Paris 15e et mort à une date inconnue, est un peintre, dessinateur, illustrateur et graveur français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vie de l'artiste Georges Ripart est à ce jour peu connue. Né au 7 passage Fougeat dans le 15e arrondissement de Paris de Louis Victor Ripart, serrurier, et de Julienne Marie Frappier, couturière[1], il exerce principalement dans cette ville en tant qu'« artiste dessinateur ». Bien que sa première affiche remonte à 1894, il eut une abondante production essentiellement entre les années 1910 et 1930 : affiches, illustrations d'ouvrages d'histoire, pédagogiques ou destinés à la jeunesse (Belin, Larousse) mais également sur souscription, notamment chez l'éditeur parisien Maurice Glomeau pour qui il exécute parfois des eaux fortes à caractère érotique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vie de l'artiste Georges Ripart est à ce jour peu connue. Né au 7 passage Fougeat dans le 15e arrondissement de Paris de Louis Victor Ripart, serrurier, et de Julienne Marie Frappier, couturière, il exerce principalement dans cette ville en tant qu'« artiste dessinateur ». Bien que sa première affiche remonte à 1894, il eut une abondante production essentiellement entre les années 1910 et 1930 : affiches, illustrations d'ouvrages d'histoire, pédagogiques ou destinés à la jeunesse (Belin, Larousse) mais également sur souscription, notamment chez l'éditeur parisien Maurice Glomeau pour qui il exécute parfois des eaux fortes à caractère érotique.
 En 1933 sort un album illustré pour les enfants qu'il réalise entièrement, La Sauterelle - La Merveilleuse invention du docteur Arrikoceq (chez Garnier Frères), l'histoire d'un véhicule mi-avion, mi-auto.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitant au 76 boulevard Saint-Marcel, il se marie une première fois avec Laure Georgette Cante (1876-1928), fille d'un négociant, le 7 août 1897. 
-Le 28 mai 1935, il épouse à Paris 6e Margueritte Henriette Hordequin [2]. Elle est morte à Saint-Germain-en-Laye le 14 novembre 1970. En 1937 Ripart figure encore sur les listes électorales de Paris[3].
+Le 28 mai 1935, il épouse à Paris 6e Margueritte Henriette Hordequin . Elle est morte à Saint-Germain-en-Laye le 14 novembre 1970. En 1937 Ripart figure encore sur les listes électorales de Paris.
 </t>
         </is>
       </c>
@@ -575,14 +591,16 @@
           <t>Affiches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Pôle Nord, imprimerie Camis, 1886 [??][4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Pôle Nord, imprimerie Camis, 1886 [??].
 Le Pôle Nord, version homme et femme, imprimerie Camis, 1894.
 Bières de Lachapelle, impr. G. Ballon, v. 1910.
 Établissements Ernest Ronot (en) - St Dizier, v. 1910.
 Cafés Savigny de Chartres, impr. Daude frères, v. 1910
-Bières Laubenheimer, 120 x 78 cm, v. 1920, musée national du château de Pau[5].
+Bières Laubenheimer, 120 x 78 cm, v. 1920, musée national du château de Pau.
 Bières Einville, 1925.
 Brabants Dollé, Vesoul, Haute-Saône, 118 x 80 cm, affiches d’art Bachollet, v. 1925.
 As de Trèfle, 159 x 117 cm, impr. Bachollet à Paris, s.d.</t>
@@ -613,7 +631,9 @@
           <t>Illustrations d'ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les locataires de M. Richard par Achille Mélandri, Paris, Alcide Picard Editeur, 1909.
 Un ministre des modes sous Louis XVI. Mademoiselle Bertin marchande de modes de la reine, 1747-1813 par Pierre de Nouvion et Émile Liez, Paris, Chez H. Leclerc, 1911.
